--- a/files/datos/dni_alumnos.xlsx
+++ b/files/datos/dni_alumnos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chatbot_santa_lucia\files\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1378A-F1FD-483E-8025-DF5C0A4E1F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B32D2-F667-4FF1-8577-5602196742BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-1155" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dni_alumnos" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="19">
   <si>
     <t>1a</t>
   </si>
@@ -131,13 +131,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -420,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36F564-0175-460B-9BC5-E6FF45226F9E}">
-  <dimension ref="A1:D476"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -441,8 +444,8 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <v>50778259</v>
+      <c r="D1" s="2">
+        <v>51454676</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,8 +458,8 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>50501320</v>
+      <c r="D2" s="2">
+        <v>51167069</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -469,8 +472,8 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>50529020</v>
+      <c r="D3" s="2">
+        <v>52020699</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -483,8 +486,8 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>50583605</v>
+      <c r="D4" s="2">
+        <v>50778337</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,8 +500,8 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>51047321</v>
+      <c r="D5" s="2">
+        <v>52009038</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,8 +514,8 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>50491765</v>
+      <c r="D6" s="2">
+        <v>51145574</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,8 +528,8 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
-        <v>50838779</v>
+      <c r="D7" s="2">
+        <v>51360267</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,8 +542,8 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>50490086</v>
+      <c r="D8" s="2">
+        <v>51508522</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,8 +556,8 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
-        <v>50392204</v>
+      <c r="D9" s="2">
+        <v>52431464</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,8 +570,8 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
-        <v>50848956</v>
+      <c r="D10" s="2">
+        <v>52431463</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -581,8 +584,8 @@
       <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>51135207</v>
+      <c r="D11" s="2">
+        <v>52449151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -595,8 +598,8 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
-        <v>51067432</v>
+      <c r="D12" s="2">
+        <v>52000153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,8 +612,8 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <v>50501463</v>
+      <c r="D13" s="2">
+        <v>51167111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -623,8 +626,8 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>50509235</v>
+      <c r="D14" s="2">
+        <v>52436580</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -637,8 +640,8 @@
       <c r="C15" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>50597108</v>
+      <c r="D15" s="2">
+        <v>52136651</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -651,8 +654,8 @@
       <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>50838744</v>
+      <c r="D16" s="2">
+        <v>52136635</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -665,8 +668,8 @@
       <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
-        <v>50651224</v>
+      <c r="D17" s="2">
+        <v>50778298</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -679,8 +682,8 @@
       <c r="C18" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
-        <v>50490102</v>
+      <c r="D18" s="2">
+        <v>51179600</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -693,8 +696,8 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
-        <v>50892129</v>
+      <c r="D19" s="2">
+        <v>52417535</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,8 +710,8 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
-        <v>50489563</v>
+      <c r="D20" s="2">
+        <v>51147445</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -721,8 +724,8 @@
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
-        <v>50891530</v>
+      <c r="D21" s="2">
+        <v>52602018</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -735,8 +738,8 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
-        <v>51217246</v>
+      <c r="D22" s="2">
+        <v>51174636</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -749,8 +752,8 @@
       <c r="C23" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
-        <v>50487274</v>
+      <c r="D23" s="2">
+        <v>51507917</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -763,8 +766,8 @@
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>50887588</v>
+      <c r="D24" s="2">
+        <v>52034376</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -777,8 +780,8 @@
       <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
-        <v>50639332</v>
+      <c r="D25" s="2">
+        <v>52436510</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -791,8 +794,8 @@
       <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
-        <v>50651230</v>
+      <c r="D26" s="2">
+        <v>52025274</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -805,8 +808,8 @@
       <c r="C27" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
-        <v>49743582</v>
+      <c r="D27" s="2">
+        <v>52004960</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -819,8 +822,8 @@
       <c r="C28" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
-        <v>50892019</v>
+      <c r="D28" s="2">
+        <v>51430057</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -833,8 +836,8 @@
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
-        <v>50544319</v>
+      <c r="D29" s="2">
+        <v>51333958</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -847,8 +850,8 @@
       <c r="C30" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
-        <v>50658278</v>
+      <c r="D30" s="2">
+        <v>52136685</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -861,8 +864,8 @@
       <c r="C31" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="1">
-        <v>50992335</v>
+      <c r="D31" s="2">
+        <v>51167034</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -875,8 +878,8 @@
       <c r="C32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
-        <v>50545582</v>
+      <c r="D32" s="2">
+        <v>51455581</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -889,8 +892,8 @@
       <c r="C33" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="1">
-        <v>50781303</v>
+      <c r="D33" s="2">
+        <v>52594510</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -903,8 +906,8 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="1">
-        <v>50651183</v>
+      <c r="D34" s="2">
+        <v>52400304</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -917,8 +920,8 @@
       <c r="C35" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="1">
-        <v>50892172</v>
+      <c r="D35" s="2">
+        <v>52163665</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,8 +934,8 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2">
-        <v>50415232</v>
+      <c r="D37" s="1">
+        <v>50778259</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,8 +948,8 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="2">
-        <v>50358988</v>
+      <c r="D38" s="1">
+        <v>50501320</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,8 +962,8 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2">
-        <v>50075254</v>
+      <c r="D39" s="1">
+        <v>50529020</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,8 +976,8 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2">
-        <v>50401219</v>
+      <c r="D40" s="1">
+        <v>50583605</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,8 +990,8 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2">
-        <v>50102259</v>
+      <c r="D41" s="1">
+        <v>51047321</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,8 +1004,8 @@
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2">
-        <v>50029235</v>
+      <c r="D42" s="1">
+        <v>50491765</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,8 +1018,8 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="2">
-        <v>49988171</v>
+      <c r="D43" s="1">
+        <v>50838779</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,8 +1032,8 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="2">
-        <v>50067549</v>
+      <c r="D44" s="1">
+        <v>50490086</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,8 +1046,8 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="2">
-        <v>50012914</v>
+      <c r="D45" s="1">
+        <v>50392204</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,8 +1060,8 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2">
-        <v>49758626</v>
+      <c r="D46" s="1">
+        <v>50848956</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,8 +1074,8 @@
       <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2">
-        <v>50088268</v>
+      <c r="D47" s="1">
+        <v>51135207</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,8 +1088,8 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="2">
-        <v>49429301</v>
+      <c r="D48" s="1">
+        <v>50501463</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,8 +1102,8 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="2">
-        <v>50152253</v>
+      <c r="D49" s="1">
+        <v>50509235</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,8 +1116,8 @@
       <c r="C50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="2">
-        <v>50236858</v>
+      <c r="D50" s="1">
+        <v>50597108</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,8 +1130,8 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="2">
-        <v>49276700</v>
+      <c r="D51" s="1">
+        <v>50838744</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,8 +1144,8 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="2">
-        <v>50436515</v>
+      <c r="D52" s="1">
+        <v>50651104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,8 +1158,8 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="2">
-        <v>49827645</v>
+      <c r="D53" s="1">
+        <v>50892129</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,8 +1172,8 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2">
-        <v>50309716</v>
+      <c r="D54" s="1">
+        <v>50489563</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,8 +1186,8 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="2">
-        <v>49740184</v>
+      <c r="D55" s="1">
+        <v>50891530</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,8 +1200,8 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
-        <v>49546144</v>
+      <c r="D56" s="1">
+        <v>51217246</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,8 +1214,8 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
-        <v>49743402</v>
+      <c r="D57" s="1">
+        <v>50487274</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,8 +1228,8 @@
       <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="2">
-        <v>49590621</v>
+      <c r="D58" s="1">
+        <v>50887588</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,8 +1242,8 @@
       <c r="C59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2">
-        <v>49672942</v>
+      <c r="D59" s="1">
+        <v>50639332</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,8 +1256,8 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2">
-        <v>49590630</v>
+      <c r="D60" s="1">
+        <v>50651230</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,8 +1270,8 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="2">
-        <v>50015049</v>
+      <c r="D61" s="1">
+        <v>49743582</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,8 +1284,8 @@
       <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="2">
-        <v>50067284</v>
+      <c r="D62" s="1">
+        <v>50892019</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,8 +1298,8 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2">
-        <v>50067319</v>
+      <c r="D63" s="1">
+        <v>50883549</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,8 +1312,8 @@
       <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="2">
-        <v>50362021</v>
+      <c r="D64" s="1">
+        <v>50658278</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,8 +1326,8 @@
       <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="2">
-        <v>50067289</v>
+      <c r="D65" s="1">
+        <v>50545582</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,8 +1340,8 @@
       <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2">
-        <v>50144363</v>
+      <c r="D66" s="1">
+        <v>50781303</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,8 +1354,8 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="2">
-        <v>49804707</v>
+      <c r="D67" s="1">
+        <v>50651183</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,22 +1368,8 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="2">
-        <v>50320550</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2">
-        <v>49876408</v>
+      <c r="D68" s="1">
+        <v>50892172</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,10 +1380,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2">
-        <v>49629371</v>
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>50415232</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,10 +1394,10 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2">
-        <v>49828835</v>
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>50358988</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,10 +1408,24 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2">
-        <v>49986299</v>
+        <v>9</v>
+      </c>
+      <c r="D72" s="1">
+        <v>50401219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>50029235</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,8 +1438,8 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="2">
-        <v>49241591</v>
+      <c r="D74" s="1">
+        <v>49988171</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,8 +1452,8 @@
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="2">
-        <v>49241538</v>
+      <c r="D75" s="1">
+        <v>50067549</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,8 +1466,8 @@
       <c r="C76" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="2">
-        <v>49547671</v>
+      <c r="D76" s="1">
+        <v>50012914</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1477,8 +1480,8 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="2">
-        <v>49241628</v>
+      <c r="D77" s="1">
+        <v>50088268</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,8 +1494,8 @@
       <c r="C78" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="2">
-        <v>49006497</v>
+      <c r="D78" s="1">
+        <v>49429301</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,8 +1508,8 @@
       <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="2">
-        <v>49358270</v>
+      <c r="D79" s="1">
+        <v>50236858</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,8 +1522,8 @@
       <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="2">
-        <v>48991735</v>
+      <c r="D80" s="1">
+        <v>49188669</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,8 +1536,8 @@
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="2">
-        <v>49157489</v>
+      <c r="D81" s="1">
+        <v>50303940</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,8 +1550,8 @@
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="2">
-        <v>48978087</v>
+      <c r="D82" s="1">
+        <v>49276700</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,8 +1564,8 @@
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="2">
-        <v>49437596</v>
+      <c r="D83" s="1">
+        <v>50436515</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,8 +1578,8 @@
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2">
-        <v>49419842</v>
+      <c r="D84" s="1">
+        <v>49827645</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,8 +1592,8 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="2">
-        <v>47433030</v>
+      <c r="D85" s="1">
+        <v>50309716</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,8 +1606,8 @@
       <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="2">
-        <v>49188737</v>
+      <c r="D86" s="1">
+        <v>49740184</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1617,8 +1620,8 @@
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="2">
-        <v>49066689</v>
+      <c r="D87" s="1">
+        <v>49546144</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1631,8 +1634,8 @@
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="2">
-        <v>49599795</v>
+      <c r="D88" s="1">
+        <v>49743402</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,8 +1648,8 @@
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="2">
-        <v>48927842</v>
+      <c r="D89" s="1">
+        <v>49672942</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1659,8 +1662,8 @@
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="2">
-        <v>49066681</v>
+      <c r="D90" s="1">
+        <v>49590630</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,8 +1676,8 @@
       <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="2">
-        <v>49429645</v>
+      <c r="D91" s="1">
+        <v>50015049</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,8 +1690,8 @@
       <c r="C92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="2">
-        <v>48226695</v>
+      <c r="D92" s="1">
+        <v>50067284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,8 +1704,8 @@
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="2">
-        <v>49518094</v>
+      <c r="D93" s="1">
+        <v>50067319</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,8 +1718,8 @@
       <c r="C94" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="2">
-        <v>49537891</v>
+      <c r="D94" s="1">
+        <v>50362021</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,8 +1732,8 @@
       <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="2">
-        <v>48927818</v>
+      <c r="D95" s="1">
+        <v>50067289</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,8 +1746,8 @@
       <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="2">
-        <v>49066639</v>
+      <c r="D96" s="1">
+        <v>50144363</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,8 +1760,8 @@
       <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="2">
-        <v>49089906</v>
+      <c r="D97" s="1">
+        <v>49804707</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,8 +1774,8 @@
       <c r="C98" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="2">
-        <v>49174004</v>
+      <c r="D98" s="1">
+        <v>50320550</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,8 +1788,8 @@
       <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="2">
-        <v>48877190</v>
+      <c r="D99" s="1">
+        <v>49876408</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1799,8 +1802,8 @@
       <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="2">
-        <v>49068954</v>
+      <c r="D100" s="1">
+        <v>49629371</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,8 +1816,8 @@
       <c r="C101" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="2">
-        <v>49161372</v>
+      <c r="D101" s="1">
+        <v>49828835</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -1827,22 +1830,8 @@
       <c r="C102" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="2">
-        <v>49419854</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2">
-        <v>48931820</v>
+      <c r="D102" s="1">
+        <v>49986299</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,10 +1842,24 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2">
-        <v>49244050</v>
+        <v>10</v>
+      </c>
+      <c r="D104" s="1">
+        <v>49241538</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>49312907</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,8 +1872,8 @@
       <c r="C106" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="2">
-        <v>48433113</v>
+      <c r="D106" s="1">
+        <v>49547671</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,8 +1886,8 @@
       <c r="C107" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="2">
-        <v>48699690</v>
+      <c r="D107" s="1">
+        <v>48226735</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -1897,8 +1900,8 @@
       <c r="C108" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="2">
-        <v>46439688</v>
+      <c r="D108" s="1">
+        <v>49681220</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -1911,8 +1914,8 @@
       <c r="C109" t="s">
         <v>10</v>
       </c>
-      <c r="D109" s="2">
-        <v>48495326</v>
+      <c r="D109" s="1">
+        <v>49358270</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,8 +1928,8 @@
       <c r="C110" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="2">
-        <v>48370188</v>
+      <c r="D110" s="1">
+        <v>49066789</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,8 +1942,8 @@
       <c r="C111" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="2">
-        <v>48794458</v>
+      <c r="D111" s="1">
+        <v>48991735</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,8 +1956,8 @@
       <c r="C112" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="2">
-        <v>47964861</v>
+      <c r="D112" s="1">
+        <v>48593263</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -1967,8 +1970,8 @@
       <c r="C113" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="2">
-        <v>47793117</v>
+      <c r="D113" s="1">
+        <v>49437596</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -1981,8 +1984,8 @@
       <c r="C114" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="2">
-        <v>48699599</v>
+      <c r="D114" s="3">
+        <v>49429842</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -1995,8 +1998,8 @@
       <c r="C115" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="2">
-        <v>48299774</v>
+      <c r="D115" s="1">
+        <v>49129354</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,8 +2012,8 @@
       <c r="C116" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="2">
-        <v>48706567</v>
+      <c r="D116" s="1">
+        <v>49415990</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2023,8 +2026,8 @@
       <c r="C117" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="2">
-        <v>47964662</v>
+      <c r="D117" s="1">
+        <v>49743545</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,8 +2040,8 @@
       <c r="C118" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="2">
-        <v>48698641</v>
+      <c r="D118" s="1">
+        <v>47433030</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,8 +2054,8 @@
       <c r="C119" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="2">
-        <v>48239173</v>
+      <c r="D119" s="1">
+        <v>49068940</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,8 +2068,8 @@
       <c r="C120" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="2">
-        <v>48433296</v>
+      <c r="D120" s="1">
+        <v>49244800</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,8 +2082,8 @@
       <c r="C121" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="2">
-        <v>47964757</v>
+      <c r="D121" s="1">
+        <v>49188737</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,8 +2096,8 @@
       <c r="C122" t="s">
         <v>10</v>
       </c>
-      <c r="D122" s="2">
-        <v>48706664</v>
+      <c r="D122" s="1">
+        <v>48226729</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2107,8 +2110,8 @@
       <c r="C123" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="2">
-        <v>48180369</v>
+      <c r="D123" s="1">
+        <v>49066689</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,8 +2124,8 @@
       <c r="C124" t="s">
         <v>10</v>
       </c>
-      <c r="D124" s="2">
-        <v>48706617</v>
+      <c r="D124" s="1">
+        <v>48982961</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2135,8 +2138,8 @@
       <c r="C125" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="2">
-        <v>47793097</v>
+      <c r="D125" s="1">
+        <v>48441820</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2149,8 +2152,8 @@
       <c r="C126" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="2">
-        <v>48847442</v>
+      <c r="D126" s="1">
+        <v>49174046</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,8 +2166,8 @@
       <c r="C127" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="2">
-        <v>48699511</v>
+      <c r="D127" s="1">
+        <v>48840492</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,8 +2180,8 @@
       <c r="C128" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="2">
-        <v>48575052</v>
+      <c r="D128" s="1">
+        <v>49419971</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2191,8 +2194,8 @@
       <c r="C129" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="2">
-        <v>48575628</v>
+      <c r="D129" s="1">
+        <v>48931833</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,8 +2208,8 @@
       <c r="C130" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="2">
-        <v>48756917</v>
+      <c r="D130" s="1">
+        <v>49537844</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2219,8 +2222,8 @@
       <c r="C131" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="2">
-        <v>48237016</v>
+      <c r="D131" s="1">
+        <v>49537891</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,8 +2236,8 @@
       <c r="C132" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="2">
-        <v>94823772</v>
+      <c r="D132" s="1">
+        <v>48840851</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2247,8 +2250,8 @@
       <c r="C133" t="s">
         <v>10</v>
       </c>
-      <c r="D133" s="2">
-        <v>48706528</v>
+      <c r="D133" s="1">
+        <v>49066639</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,8 +2264,8 @@
       <c r="C134" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="2">
-        <v>48575879</v>
+      <c r="D134" s="1">
+        <v>49068954</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2275,8 +2278,8 @@
       <c r="C135" t="s">
         <v>10</v>
       </c>
-      <c r="D135" s="2">
-        <v>48170531</v>
+      <c r="D135" s="1">
+        <v>49161372</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2289,8 +2292,8 @@
       <c r="C136" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="2">
-        <v>47129987</v>
+      <c r="D136" s="1">
+        <v>48880159</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2303,8 +2306,8 @@
       <c r="C137" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="2">
-        <v>48239836</v>
+      <c r="D137" s="1">
+        <v>49161575</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2317,8 +2320,8 @@
       <c r="C138" t="s">
         <v>10</v>
       </c>
-      <c r="D138" s="2">
-        <v>48594613</v>
+      <c r="D138" s="1">
+        <v>48931820</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,8 +2334,8 @@
       <c r="C139" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="2">
-        <v>48706548</v>
+      <c r="D139" s="1">
+        <v>44258705</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2345,22 +2348,8 @@
       <c r="C140" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="2">
-        <v>48172810</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="2">
-        <v>48567583</v>
+      <c r="D140" s="1">
+        <v>49244050</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2371,10 +2360,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="2">
-        <v>48649589</v>
+        <v>11</v>
+      </c>
+      <c r="D142" s="1">
+        <v>48583185</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2385,10 +2374,24 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="2">
-        <v>48291637</v>
+        <v>11</v>
+      </c>
+      <c r="D143" s="1">
+        <v>49241591</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="1">
+        <v>49006497</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2401,8 +2404,8 @@
       <c r="C145" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="2">
-        <v>48180687</v>
+      <c r="D145" s="1">
+        <v>49241602</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,8 +2418,8 @@
       <c r="C146" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="2">
-        <v>47514907</v>
+      <c r="D146" s="1">
+        <v>49421611</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2429,8 +2432,8 @@
       <c r="C147" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="2">
-        <v>48382144</v>
+      <c r="D147" s="1">
+        <v>47964861</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2443,8 +2446,8 @@
       <c r="C148" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="2">
-        <v>48360037</v>
+      <c r="D148" s="1">
+        <v>49624169</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2457,8 +2460,8 @@
       <c r="C149" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="2">
-        <v>48114387</v>
+      <c r="D149" s="1">
+        <v>49420118</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,8 +2474,8 @@
       <c r="C150" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="2">
-        <v>48495373</v>
+      <c r="D150" s="1">
+        <v>49157489</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2485,8 +2488,8 @@
       <c r="C151" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="2">
-        <v>48110142</v>
+      <c r="D151" s="1">
+        <v>49069428</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2499,8 +2502,8 @@
       <c r="C152" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="2">
-        <v>48233978</v>
+      <c r="D152" s="1">
+        <v>48978087</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2513,8 +2516,8 @@
       <c r="C153" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="2">
-        <v>48387114</v>
+      <c r="D153" s="1">
+        <v>48995635</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2527,8 +2530,8 @@
       <c r="C154" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="2">
-        <v>48295578</v>
+      <c r="D154" s="1">
+        <v>49192289</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -2541,8 +2544,8 @@
       <c r="C155" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="2">
-        <v>48169838</v>
+      <c r="D155" s="1">
+        <v>48927868</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2555,8 +2558,8 @@
       <c r="C156" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="2">
-        <v>47348552</v>
+      <c r="D156" s="1">
+        <v>49419803</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2569,8 +2572,8 @@
       <c r="C157" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="2">
-        <v>47514955</v>
+      <c r="D157" s="1">
+        <v>49244779</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -2583,8 +2586,8 @@
       <c r="C158" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="2">
-        <v>47220499</v>
+      <c r="D158" s="1">
+        <v>49599795</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -2597,8 +2600,8 @@
       <c r="C159" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="2">
-        <v>48037184</v>
+      <c r="D159" s="1">
+        <v>48847668</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -2611,8 +2614,8 @@
       <c r="C160" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="2">
-        <v>48055848</v>
+      <c r="D160" s="1">
+        <v>48880191</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -2625,8 +2628,8 @@
       <c r="C161" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="2">
-        <v>48112140</v>
+      <c r="D161" s="1">
+        <v>49525760</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -2639,8 +2642,8 @@
       <c r="C162" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="2">
-        <v>47964535</v>
+      <c r="D162" s="1">
+        <v>48927842</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -2653,8 +2656,8 @@
       <c r="C163" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="2">
-        <v>48495324</v>
+      <c r="D163" s="1">
+        <v>49066681</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -2667,8 +2670,8 @@
       <c r="C164" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="2">
-        <v>48706627</v>
+      <c r="D164" s="1">
+        <v>48438524</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,8 +2684,8 @@
       <c r="C165" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="2">
-        <v>48382209</v>
+      <c r="D165" s="1">
+        <v>48911769</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -2695,8 +2698,8 @@
       <c r="C166" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="2">
-        <v>48233611</v>
+      <c r="D166" s="1">
+        <v>48226695</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -2709,8 +2712,8 @@
       <c r="C167" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="2">
-        <v>48575976</v>
+      <c r="D167" s="1">
+        <v>49174004</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -2723,8 +2726,8 @@
       <c r="C168" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="2">
-        <v>47169754</v>
+      <c r="D168" s="1">
+        <v>49240814</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -2737,8 +2740,8 @@
       <c r="C169" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="2">
-        <v>48575018</v>
+      <c r="D169" s="1">
+        <v>48877190</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -2751,8 +2754,8 @@
       <c r="C170" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="2">
-        <v>47129950</v>
+      <c r="D170" s="1">
+        <v>48991760</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -2765,8 +2768,8 @@
       <c r="C171" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="2">
-        <v>48311980</v>
+      <c r="D171" s="1">
+        <v>49354241</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -2779,8 +2782,8 @@
       <c r="C172" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="2">
-        <v>47220498</v>
+      <c r="D172" s="1">
+        <v>49258233</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -2793,8 +2796,8 @@
       <c r="C173" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="2">
-        <v>48299546</v>
+      <c r="D173" s="1">
+        <v>48840913</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -2807,8 +2810,8 @@
       <c r="C174" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="2">
-        <v>47793580</v>
+      <c r="D174" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -2821,8 +2824,8 @@
       <c r="C175" t="s">
         <v>11</v>
       </c>
-      <c r="D175" s="2">
-        <v>48385812</v>
+      <c r="D175" s="1">
+        <v>48433107</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -2835,8 +2838,8 @@
       <c r="C176" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="2">
-        <v>48575508</v>
+      <c r="D176" s="1">
+        <v>49009783</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -2849,22 +2852,8 @@
       <c r="C177" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="2">
-        <v>48237139</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>3</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="2">
-        <v>48219873</v>
+      <c r="D177" s="1">
+        <v>49419854</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="2">
-        <v>48495310</v>
+        <v>12</v>
+      </c>
+      <c r="D179" s="1">
+        <v>48433113</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -2889,10 +2878,10 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="2">
-        <v>48296729</v>
+        <v>12</v>
+      </c>
+      <c r="D180" s="1">
+        <v>48699690</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -2903,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
-      </c>
-      <c r="D181" s="2">
-        <v>48796502</v>
+        <v>12</v>
+      </c>
+      <c r="D181" s="1">
+        <v>46439688</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -2917,10 +2906,24 @@
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="2">
-        <v>48770802</v>
+        <v>12</v>
+      </c>
+      <c r="D182" s="1">
+        <v>48495326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="1">
+        <v>48370188</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -2933,8 +2936,8 @@
       <c r="C184" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="2">
-        <v>47392762</v>
+      <c r="D184" s="1">
+        <v>47348552</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -2947,8 +2950,8 @@
       <c r="C185" t="s">
         <v>12</v>
       </c>
-      <c r="D185" s="2">
-        <v>47220413</v>
+      <c r="D185" s="1">
+        <v>48699599</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -2961,8 +2964,8 @@
       <c r="C186" t="s">
         <v>12</v>
       </c>
-      <c r="D186" s="2">
-        <v>47461642</v>
+      <c r="D186" s="1">
+        <v>48299774</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -2975,8 +2978,8 @@
       <c r="C187" t="s">
         <v>12</v>
       </c>
-      <c r="D187" s="2">
-        <v>47229039</v>
+      <c r="D187" s="1">
+        <v>48706567</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -2989,8 +2992,8 @@
       <c r="C188" t="s">
         <v>12</v>
       </c>
-      <c r="D188" s="2">
-        <v>47377814</v>
+      <c r="D188" s="1">
+        <v>47964662</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3003,8 +3006,8 @@
       <c r="C189" t="s">
         <v>12</v>
       </c>
-      <c r="D189" s="2">
-        <v>47456811</v>
+      <c r="D189" s="1">
+        <v>48239173</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3017,8 +3020,8 @@
       <c r="C190" t="s">
         <v>12</v>
       </c>
-      <c r="D190" s="2">
-        <v>47435402</v>
+      <c r="D190" s="1">
+        <v>48433296</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3031,8 +3034,8 @@
       <c r="C191" t="s">
         <v>12</v>
       </c>
-      <c r="D191" s="2">
-        <v>47741987</v>
+      <c r="D191" s="1">
+        <v>47964757</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3045,8 +3048,8 @@
       <c r="C192" t="s">
         <v>12</v>
       </c>
-      <c r="D192" s="2">
-        <v>47741840</v>
+      <c r="D192" s="1">
+        <v>48706664</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3059,8 +3062,8 @@
       <c r="C193" t="s">
         <v>12</v>
       </c>
-      <c r="D193" s="2">
-        <v>47377852</v>
+      <c r="D193" s="1">
+        <v>48180369</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3073,8 +3076,8 @@
       <c r="C194" t="s">
         <v>12</v>
       </c>
-      <c r="D194" s="2">
-        <v>47347201</v>
+      <c r="D194" s="1">
+        <v>47963722</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3087,8 +3090,8 @@
       <c r="C195" t="s">
         <v>12</v>
       </c>
-      <c r="D195" s="2">
-        <v>47963723</v>
+      <c r="D195" s="1">
+        <v>48847442</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3101,8 +3104,8 @@
       <c r="C196" t="s">
         <v>12</v>
       </c>
-      <c r="D196" s="2">
-        <v>47963722</v>
+      <c r="D196" s="1">
+        <v>48699511</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3115,8 +3118,8 @@
       <c r="C197" t="s">
         <v>12</v>
       </c>
-      <c r="D197" s="2">
-        <v>47790863</v>
+      <c r="D197" s="1">
+        <v>48575052</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3129,8 +3132,8 @@
       <c r="C198" t="s">
         <v>12</v>
       </c>
-      <c r="D198" s="2">
-        <v>47346519</v>
+      <c r="D198" s="1">
+        <v>48575628</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3143,8 +3146,8 @@
       <c r="C199" t="s">
         <v>12</v>
       </c>
-      <c r="D199" s="2">
-        <v>47734310</v>
+      <c r="D199" s="1">
+        <v>48756917</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3157,8 +3160,8 @@
       <c r="C200" t="s">
         <v>12</v>
       </c>
-      <c r="D200" s="2">
-        <v>46412349</v>
+      <c r="D200" s="1">
+        <v>48237016</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -3171,8 +3174,8 @@
       <c r="C201" t="s">
         <v>12</v>
       </c>
-      <c r="D201" s="2">
-        <v>47881198</v>
+      <c r="D201" s="1">
+        <v>94823772</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3185,8 +3188,8 @@
       <c r="C202" t="s">
         <v>12</v>
       </c>
-      <c r="D202" s="2">
-        <v>48037011</v>
+      <c r="D202" s="1">
+        <v>48706528</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -3199,8 +3202,8 @@
       <c r="C203" t="s">
         <v>12</v>
       </c>
-      <c r="D203" s="2">
-        <v>47220471</v>
+      <c r="D203" s="1">
+        <v>48575879</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3213,8 +3216,8 @@
       <c r="C204" t="s">
         <v>12</v>
       </c>
-      <c r="D204" s="2">
-        <v>48027540</v>
+      <c r="D204" s="1">
+        <v>47129987</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -3227,8 +3230,8 @@
       <c r="C205" t="s">
         <v>12</v>
       </c>
-      <c r="D205" s="2">
-        <v>47751254</v>
+      <c r="D205" s="1">
+        <v>48239836</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -3241,8 +3244,8 @@
       <c r="C206" t="s">
         <v>12</v>
       </c>
-      <c r="D206" s="2">
-        <v>47794631</v>
+      <c r="D206" s="1">
+        <v>48594613</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -3255,8 +3258,8 @@
       <c r="C207" t="s">
         <v>12</v>
       </c>
-      <c r="D207" s="2">
-        <v>46290096</v>
+      <c r="D207" s="1">
+        <v>48706548</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -3269,8 +3272,8 @@
       <c r="C208" t="s">
         <v>12</v>
       </c>
-      <c r="D208" s="2">
-        <v>47455716</v>
+      <c r="D208" s="1">
+        <v>48172810</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -3283,8 +3286,8 @@
       <c r="C209" t="s">
         <v>12</v>
       </c>
-      <c r="D209" s="2">
-        <v>47881294</v>
+      <c r="D209" s="1">
+        <v>48567583</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3297,8 +3300,8 @@
       <c r="C210" t="s">
         <v>12</v>
       </c>
-      <c r="D210" s="2">
-        <v>47691049</v>
+      <c r="D210" s="1">
+        <v>48649589</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -3311,22 +3314,8 @@
       <c r="C211" t="s">
         <v>12</v>
       </c>
-      <c r="D211" s="2">
-        <v>47432131</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>3</v>
-      </c>
-      <c r="B212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2">
-        <v>47161564</v>
+      <c r="D211" s="1">
+        <v>48291637</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -3337,10 +3326,10 @@
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2">
-        <v>47029681</v>
+        <v>13</v>
+      </c>
+      <c r="D213" s="1">
+        <v>47067179</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -3351,10 +3340,10 @@
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2">
-        <v>47867376</v>
+        <v>13</v>
+      </c>
+      <c r="D214" s="1">
+        <v>48180687</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -3365,10 +3354,10 @@
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" s="2">
-        <v>47281987</v>
+        <v>13</v>
+      </c>
+      <c r="D215" s="1">
+        <v>47514907</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -3379,10 +3368,10 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2">
-        <v>47683414</v>
+        <v>13</v>
+      </c>
+      <c r="D216" s="1">
+        <v>48382144</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -3393,10 +3382,10 @@
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2">
-        <v>47281964</v>
+        <v>13</v>
+      </c>
+      <c r="D217" s="1">
+        <v>48360037</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -3407,10 +3396,24 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2">
-        <v>47691058</v>
+        <v>13</v>
+      </c>
+      <c r="D218" s="1">
+        <v>48027562</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="1">
+        <v>48495373</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -3423,8 +3426,8 @@
       <c r="C220" t="s">
         <v>13</v>
       </c>
-      <c r="D220" s="2">
-        <v>47067179</v>
+      <c r="D220" s="1">
+        <v>48110142</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -3437,8 +3440,8 @@
       <c r="C221" t="s">
         <v>13</v>
       </c>
-      <c r="D221" s="2">
-        <v>47554086</v>
+      <c r="D221" s="1">
+        <v>48233978</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -3451,8 +3454,8 @@
       <c r="C222" t="s">
         <v>13</v>
       </c>
-      <c r="D222" s="2">
-        <v>47461699</v>
+      <c r="D222" s="1">
+        <v>48387114</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -3465,8 +3468,8 @@
       <c r="C223" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="2">
-        <v>48027562</v>
+      <c r="D223" s="1">
+        <v>48295578</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -3479,8 +3482,8 @@
       <c r="C224" t="s">
         <v>13</v>
       </c>
-      <c r="D224" s="2">
-        <v>47793008</v>
+      <c r="D224" s="1">
+        <v>48169838</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -3493,8 +3496,8 @@
       <c r="C225" t="s">
         <v>13</v>
       </c>
-      <c r="D225" s="2">
-        <v>47691130</v>
+      <c r="D225" s="1">
+        <v>47514955</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -3507,8 +3510,8 @@
       <c r="C226" t="s">
         <v>13</v>
       </c>
-      <c r="D226" s="2">
-        <v>47700588</v>
+      <c r="D226" s="1">
+        <v>47650204</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -3521,8 +3524,8 @@
       <c r="C227" t="s">
         <v>13</v>
       </c>
-      <c r="D227" s="2">
-        <v>47683712</v>
+      <c r="D227" s="1">
+        <v>47220499</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -3535,8 +3538,8 @@
       <c r="C228" t="s">
         <v>13</v>
       </c>
-      <c r="D228" s="2">
-        <v>47435392</v>
+      <c r="D228" s="1">
+        <v>48037184</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -3549,8 +3552,8 @@
       <c r="C229" t="s">
         <v>13</v>
       </c>
-      <c r="D229" s="2">
-        <v>47491056</v>
+      <c r="D229" s="1">
+        <v>48055848</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -3563,8 +3566,8 @@
       <c r="C230" t="s">
         <v>13</v>
       </c>
-      <c r="D230" s="2">
-        <v>48037034</v>
+      <c r="D230" s="1">
+        <v>48112140</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -3577,8 +3580,8 @@
       <c r="C231" t="s">
         <v>13</v>
       </c>
-      <c r="D231" s="2">
-        <v>47457114</v>
+      <c r="D231" s="1">
+        <v>47964535</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -3591,8 +3594,8 @@
       <c r="C232" t="s">
         <v>13</v>
       </c>
-      <c r="D232" s="2">
-        <v>47881248</v>
+      <c r="D232" s="1">
+        <v>48495324</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -3605,8 +3608,8 @@
       <c r="C233" t="s">
         <v>13</v>
       </c>
-      <c r="D233" s="2">
-        <v>47414928</v>
+      <c r="D233" s="1">
+        <v>48706627</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -3619,8 +3622,8 @@
       <c r="C234" t="s">
         <v>13</v>
       </c>
-      <c r="D234" s="2">
-        <v>47650204</v>
+      <c r="D234" s="1">
+        <v>48233611</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -3633,8 +3636,8 @@
       <c r="C235" t="s">
         <v>13</v>
       </c>
-      <c r="D235" s="2">
-        <v>47650203</v>
+      <c r="D235" s="1">
+        <v>48575976</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -3647,8 +3650,8 @@
       <c r="C236" t="s">
         <v>13</v>
       </c>
-      <c r="D236" s="2">
-        <v>47455659</v>
+      <c r="D236" s="1">
+        <v>47169754</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -3661,8 +3664,8 @@
       <c r="C237" t="s">
         <v>13</v>
       </c>
-      <c r="D237" s="2">
-        <v>47700645</v>
+      <c r="D237" s="1">
+        <v>48575018</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -3675,8 +3678,8 @@
       <c r="C238" t="s">
         <v>13</v>
       </c>
-      <c r="D238" s="2">
-        <v>48037075</v>
+      <c r="D238" s="1">
+        <v>47129950</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -3689,8 +3692,8 @@
       <c r="C239" t="s">
         <v>13</v>
       </c>
-      <c r="D239" s="2">
-        <v>47595666</v>
+      <c r="D239" s="1">
+        <v>48311980</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -3703,8 +3706,8 @@
       <c r="C240" t="s">
         <v>13</v>
       </c>
-      <c r="D240" s="2">
-        <v>47741970</v>
+      <c r="D240" s="1">
+        <v>47220498</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -3717,8 +3720,8 @@
       <c r="C241" t="s">
         <v>13</v>
       </c>
-      <c r="D241" s="2">
-        <v>47790963</v>
+      <c r="D241" s="1">
+        <v>47793580</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -3731,8 +3734,8 @@
       <c r="C242" t="s">
         <v>13</v>
       </c>
-      <c r="D242" s="2">
-        <v>47455546</v>
+      <c r="D242" s="1">
+        <v>48385812</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -3745,8 +3748,8 @@
       <c r="C243" t="s">
         <v>13</v>
       </c>
-      <c r="D243" s="2">
-        <v>47432525</v>
+      <c r="D243" s="1">
+        <v>48575508</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -3759,8 +3762,8 @@
       <c r="C244" t="s">
         <v>13</v>
       </c>
-      <c r="D244" s="2">
-        <v>47484995</v>
+      <c r="D244" s="1">
+        <v>48237139</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -3773,8 +3776,8 @@
       <c r="C245" t="s">
         <v>13</v>
       </c>
-      <c r="D245" s="2">
-        <v>47519493</v>
+      <c r="D245" s="1">
+        <v>48219873</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -3787,8 +3790,8 @@
       <c r="C246" t="s">
         <v>13</v>
       </c>
-      <c r="D246" s="2">
-        <v>47758446</v>
+      <c r="D246" s="1">
+        <v>48495310</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -3801,8 +3804,8 @@
       <c r="C247" t="s">
         <v>13</v>
       </c>
-      <c r="D247" s="2">
-        <v>47403856</v>
+      <c r="D247" s="1">
+        <v>48296729</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -3815,8 +3818,8 @@
       <c r="C248" t="s">
         <v>13</v>
       </c>
-      <c r="D248" s="2">
-        <v>47557929</v>
+      <c r="D248" s="1">
+        <v>48796502</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -3829,22 +3832,8 @@
       <c r="C249" t="s">
         <v>13</v>
       </c>
-      <c r="D249" s="2">
-        <v>47880745</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>3</v>
-      </c>
-      <c r="B250" t="s">
-        <v>5</v>
-      </c>
-      <c r="C250" t="s">
-        <v>13</v>
-      </c>
-      <c r="D250" s="2">
-        <v>47679968</v>
+      <c r="D249" s="1">
+        <v>48770802</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -3855,10 +3844,10 @@
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
-      </c>
-      <c r="D251" s="2">
-        <v>47800040</v>
+        <v>14</v>
+      </c>
+      <c r="D251" s="1">
+        <v>47392762</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -3869,10 +3858,10 @@
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
-      </c>
-      <c r="D252" s="2">
-        <v>47455641</v>
+        <v>14</v>
+      </c>
+      <c r="D252" s="1">
+        <v>47220413</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -3883,10 +3872,10 @@
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
-      </c>
-      <c r="D253" s="2">
-        <v>47220304</v>
+        <v>14</v>
+      </c>
+      <c r="D253" s="1">
+        <v>47461642</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -3897,10 +3886,10 @@
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
-      </c>
-      <c r="D254" s="2">
-        <v>47281897</v>
+        <v>14</v>
+      </c>
+      <c r="D254" s="1">
+        <v>46703900</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,10 +3900,10 @@
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
-      </c>
-      <c r="D255" s="2">
-        <v>47790814</v>
+        <v>14</v>
+      </c>
+      <c r="D255" s="1">
+        <v>47229039</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -3925,10 +3914,10 @@
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
-      </c>
-      <c r="D256" s="2">
-        <v>47392503</v>
+        <v>14</v>
+      </c>
+      <c r="D256" s="1">
+        <v>47377814</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -3939,10 +3928,10 @@
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
-      </c>
-      <c r="D257" s="2">
-        <v>47235473</v>
+        <v>14</v>
+      </c>
+      <c r="D257" s="1">
+        <v>47456811</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -3953,10 +3942,24 @@
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
-      </c>
-      <c r="D258" s="2">
-        <v>47881282</v>
+        <v>14</v>
+      </c>
+      <c r="D258" s="1">
+        <v>47435402</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" s="1">
+        <v>47741987</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -3969,8 +3972,8 @@
       <c r="C260" t="s">
         <v>14</v>
       </c>
-      <c r="D260" s="2">
-        <v>45899303</v>
+      <c r="D260" s="1">
+        <v>47741840</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -3983,8 +3986,8 @@
       <c r="C261" t="s">
         <v>14</v>
       </c>
-      <c r="D261" s="2">
-        <v>46276792</v>
+      <c r="D261" s="1">
+        <v>47347201</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -3997,8 +4000,8 @@
       <c r="C262" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="2">
-        <v>46911499</v>
+      <c r="D262" s="1">
+        <v>47963723</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -4011,8 +4014,8 @@
       <c r="C263" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="2">
-        <v>47277710</v>
+      <c r="D263" s="1">
+        <v>47790863</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -4025,8 +4028,8 @@
       <c r="C264" t="s">
         <v>14</v>
       </c>
-      <c r="D264" s="2">
-        <v>46584665</v>
+      <c r="D264" s="1">
+        <v>47346519</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -4039,8 +4042,8 @@
       <c r="C265" t="s">
         <v>14</v>
       </c>
-      <c r="D265" s="2">
-        <v>46945317</v>
+      <c r="D265" s="1">
+        <v>47734310</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -4053,8 +4056,8 @@
       <c r="C266" t="s">
         <v>14</v>
       </c>
-      <c r="D266" s="2">
-        <v>47273205</v>
+      <c r="D266" s="1">
+        <v>46412349</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -4067,8 +4070,8 @@
       <c r="C267" t="s">
         <v>14</v>
       </c>
-      <c r="D267" s="2">
-        <v>46942834</v>
+      <c r="D267" s="1">
+        <v>47881198</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4081,8 +4084,8 @@
       <c r="C268" t="s">
         <v>14</v>
       </c>
-      <c r="D268" s="2">
-        <v>46939393</v>
+      <c r="D268" s="1">
+        <v>47220471</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -4095,8 +4098,8 @@
       <c r="C269" t="s">
         <v>14</v>
       </c>
-      <c r="D269" s="2">
-        <v>47214140</v>
+      <c r="D269" s="1">
+        <v>48027540</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -4109,8 +4112,8 @@
       <c r="C270" t="s">
         <v>14</v>
       </c>
-      <c r="D270" s="2">
-        <v>47119224</v>
+      <c r="D270" s="1">
+        <v>46290096</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -4123,8 +4126,8 @@
       <c r="C271" t="s">
         <v>14</v>
       </c>
-      <c r="D271" s="2">
-        <v>46939290</v>
+      <c r="D271" s="1">
+        <v>47455716</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4137,8 +4140,8 @@
       <c r="C272" t="s">
         <v>14</v>
       </c>
-      <c r="D272" s="2">
-        <v>47213907</v>
+      <c r="D272" s="1">
+        <v>47881294</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -4151,8 +4154,8 @@
       <c r="C273" t="s">
         <v>14</v>
       </c>
-      <c r="D273" s="2">
-        <v>46753603</v>
+      <c r="D273" s="1">
+        <v>47691049</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -4165,8 +4168,8 @@
       <c r="C274" t="s">
         <v>14</v>
       </c>
-      <c r="D274" s="2">
-        <v>46917975</v>
+      <c r="D274" s="1">
+        <v>47432131</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -4179,8 +4182,8 @@
       <c r="C275" t="s">
         <v>14</v>
       </c>
-      <c r="D275" s="2">
-        <v>47009311</v>
+      <c r="D275" s="1">
+        <v>47867376</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -4193,8 +4196,8 @@
       <c r="C276" t="s">
         <v>14</v>
       </c>
-      <c r="D276" s="2">
-        <v>46635895</v>
+      <c r="D276" s="1">
+        <v>47281987</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -4207,22 +4210,8 @@
       <c r="C277" t="s">
         <v>14</v>
       </c>
-      <c r="D277" s="2">
-        <v>47190844</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>3</v>
-      </c>
-      <c r="B278" t="s">
-        <v>5</v>
-      </c>
-      <c r="C278" t="s">
-        <v>14</v>
-      </c>
-      <c r="D278" s="2">
-        <v>47086037</v>
+      <c r="D277" s="1">
+        <v>47683414</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -4233,10 +4222,10 @@
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>14</v>
-      </c>
-      <c r="D279" s="2">
-        <v>47219641</v>
+        <v>15</v>
+      </c>
+      <c r="D279" s="1">
+        <v>47554086</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -4247,10 +4236,24 @@
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
-      </c>
-      <c r="D280" s="2">
-        <v>47063508</v>
+        <v>15</v>
+      </c>
+      <c r="D280" s="1">
+        <v>47461699</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281" s="1">
+        <v>47793008</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -4263,8 +4266,8 @@
       <c r="C282" t="s">
         <v>15</v>
       </c>
-      <c r="D282" s="2">
-        <v>46743863</v>
+      <c r="D282" s="1">
+        <v>47691130</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -4277,8 +4280,8 @@
       <c r="C283" t="s">
         <v>15</v>
       </c>
-      <c r="D283" s="2">
-        <v>46903066</v>
+      <c r="D283" s="1">
+        <v>47683712</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -4291,8 +4294,8 @@
       <c r="C284" t="s">
         <v>15</v>
       </c>
-      <c r="D284" s="2">
-        <v>48439198</v>
+      <c r="D284" s="1">
+        <v>47435392</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -4305,8 +4308,8 @@
       <c r="C285" t="s">
         <v>15</v>
       </c>
-      <c r="D285" s="2">
-        <v>47557974</v>
+      <c r="D285" s="1">
+        <v>47491056</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -4319,8 +4322,8 @@
       <c r="C286" t="s">
         <v>15</v>
       </c>
-      <c r="D286" s="2">
-        <v>46917078</v>
+      <c r="D286" s="1">
+        <v>48037034</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -4333,8 +4336,8 @@
       <c r="C287" t="s">
         <v>15</v>
       </c>
-      <c r="D287" s="2">
-        <v>46908408</v>
+      <c r="D287" s="1">
+        <v>47457114</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -4347,8 +4350,8 @@
       <c r="C288" t="s">
         <v>15</v>
       </c>
-      <c r="D288" s="2">
-        <v>47054018</v>
+      <c r="D288" s="1">
+        <v>47881248</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -4361,8 +4364,8 @@
       <c r="C289" t="s">
         <v>15</v>
       </c>
-      <c r="D289" s="2">
-        <v>47063828</v>
+      <c r="D289" s="1">
+        <v>47414928</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -4375,8 +4378,8 @@
       <c r="C290" t="s">
         <v>15</v>
       </c>
-      <c r="D290" s="2">
-        <v>47313604</v>
+      <c r="D290" s="1">
+        <v>47650203</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -4389,8 +4392,8 @@
       <c r="C291" t="s">
         <v>15</v>
       </c>
-      <c r="D291" s="2">
-        <v>47403781</v>
+      <c r="D291" s="1">
+        <v>47455659</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -4403,8 +4406,8 @@
       <c r="C292" t="s">
         <v>15</v>
       </c>
-      <c r="D292" s="2">
-        <v>46122424</v>
+      <c r="D292" s="1">
+        <v>47700645</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -4417,8 +4420,8 @@
       <c r="C293" t="s">
         <v>15</v>
       </c>
-      <c r="D293" s="2">
-        <v>47313657</v>
+      <c r="D293" s="1">
+        <v>48037075</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -4431,8 +4434,8 @@
       <c r="C294" t="s">
         <v>15</v>
       </c>
-      <c r="D294" s="2">
-        <v>46276805</v>
+      <c r="D294" s="1">
+        <v>47595666</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -4445,8 +4448,8 @@
       <c r="C295" t="s">
         <v>15</v>
       </c>
-      <c r="D295" s="2">
-        <v>47094020</v>
+      <c r="D295" s="1">
+        <v>47741970</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -4459,8 +4462,8 @@
       <c r="C296" t="s">
         <v>15</v>
       </c>
-      <c r="D296" s="2">
-        <v>46957970</v>
+      <c r="D296" s="1">
+        <v>47790963</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -4473,8 +4476,8 @@
       <c r="C297" t="s">
         <v>15</v>
       </c>
-      <c r="D297" s="2">
-        <v>47143716</v>
+      <c r="D297" s="1">
+        <v>47455546</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -4487,8 +4490,8 @@
       <c r="C298" t="s">
         <v>15</v>
       </c>
-      <c r="D298" s="2">
-        <v>47093403</v>
+      <c r="D298" s="1">
+        <v>47432525</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -4501,8 +4504,8 @@
       <c r="C299" t="s">
         <v>15</v>
       </c>
-      <c r="D299" s="2">
-        <v>46957979</v>
+      <c r="D299" s="1">
+        <v>47484995</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -4515,8 +4518,8 @@
       <c r="C300" t="s">
         <v>15</v>
       </c>
-      <c r="D300" s="2">
-        <v>47009296</v>
+      <c r="D300" s="1">
+        <v>47519493</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -4529,8 +4532,8 @@
       <c r="C301" t="s">
         <v>15</v>
       </c>
-      <c r="D301" s="2">
-        <v>46649199</v>
+      <c r="D301" s="1">
+        <v>47758446</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -4543,8 +4546,8 @@
       <c r="C302" t="s">
         <v>15</v>
       </c>
-      <c r="D302" s="2">
-        <v>47339555</v>
+      <c r="D302" s="1">
+        <v>47557929</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -4557,8 +4560,22 @@
       <c r="C303" t="s">
         <v>15</v>
       </c>
-      <c r="D303" s="2">
-        <v>47086061</v>
+      <c r="D303" s="1">
+        <v>47880745</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>15</v>
+      </c>
+      <c r="D304" s="1">
+        <v>47679968</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -4566,13 +4583,13 @@
         <v>3</v>
       </c>
       <c r="B305" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" s="2">
-        <v>50097446</v>
+        <v>15</v>
+      </c>
+      <c r="D305" s="1">
+        <v>47800040</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -4580,13 +4597,13 @@
         <v>3</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" s="2">
-        <v>50501484</v>
+        <v>15</v>
+      </c>
+      <c r="D306" s="1">
+        <v>47455641</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -4594,13 +4611,13 @@
         <v>3</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
-      </c>
-      <c r="D307" s="2">
-        <v>50893493</v>
+        <v>15</v>
+      </c>
+      <c r="D307" s="1">
+        <v>47220304</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -4608,13 +4625,13 @@
         <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" s="2">
-        <v>50865224</v>
+        <v>15</v>
+      </c>
+      <c r="D308" s="1">
+        <v>47281897</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -4622,13 +4639,13 @@
         <v>3</v>
       </c>
       <c r="B309" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
-      </c>
-      <c r="D309" s="2">
-        <v>50777935</v>
+        <v>15</v>
+      </c>
+      <c r="D309" s="1">
+        <v>47790814</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -4636,13 +4653,13 @@
         <v>3</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
-      </c>
-      <c r="D310" s="2">
-        <v>50883587</v>
+        <v>15</v>
+      </c>
+      <c r="D310" s="1">
+        <v>47392503</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -4650,27 +4667,13 @@
         <v>3</v>
       </c>
       <c r="B311" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>6</v>
-      </c>
-      <c r="D311" s="2">
-        <v>50485735</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>3</v>
-      </c>
-      <c r="B312" t="s">
-        <v>4</v>
-      </c>
-      <c r="C312" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" s="2">
-        <v>50658325</v>
+        <v>15</v>
+      </c>
+      <c r="D311" s="1">
+        <v>47881282</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -4683,8 +4686,8 @@
       <c r="C313" t="s">
         <v>6</v>
       </c>
-      <c r="D313" s="2">
-        <v>50399467</v>
+      <c r="D313" s="1">
+        <v>51179616</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -4697,8 +4700,8 @@
       <c r="C314" t="s">
         <v>6</v>
       </c>
-      <c r="D314" s="2">
-        <v>49743556</v>
+      <c r="D314" s="1">
+        <v>52438414</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -4711,8 +4714,8 @@
       <c r="C315" t="s">
         <v>6</v>
       </c>
-      <c r="D315" s="2">
-        <v>50658284</v>
+      <c r="D315" s="1">
+        <v>51454638</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -4725,8 +4728,8 @@
       <c r="C316" t="s">
         <v>6</v>
       </c>
-      <c r="D316" s="2">
-        <v>50056372</v>
+      <c r="D316" s="1">
+        <v>52451789</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -4739,8 +4742,8 @@
       <c r="C317" t="s">
         <v>6</v>
       </c>
-      <c r="D317" s="2">
-        <v>50490105</v>
+      <c r="D317" s="1">
+        <v>51437942</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -4753,8 +4756,8 @@
       <c r="C318" t="s">
         <v>6</v>
       </c>
-      <c r="D318" s="2">
-        <v>50366664</v>
+      <c r="D318" s="1">
+        <v>52436523</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -4767,8 +4770,8 @@
       <c r="C319" t="s">
         <v>6</v>
       </c>
-      <c r="D319" s="2">
-        <v>50366761</v>
+      <c r="D319" s="1">
+        <v>52447208</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -4781,8 +4784,8 @@
       <c r="C320" t="s">
         <v>6</v>
       </c>
-      <c r="D320" s="2">
-        <v>50490175</v>
+      <c r="D320" s="1">
+        <v>52604034</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -4795,8 +4798,8 @@
       <c r="C321" t="s">
         <v>6</v>
       </c>
-      <c r="D321" s="2">
-        <v>50501334</v>
+      <c r="D321" s="1">
+        <v>51259948</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -4809,8 +4812,8 @@
       <c r="C322" t="s">
         <v>6</v>
       </c>
-      <c r="D322" s="2">
-        <v>50501422</v>
+      <c r="D322" s="1">
+        <v>52032337</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -4823,8 +4826,8 @@
       <c r="C323" t="s">
         <v>6</v>
       </c>
-      <c r="D323" s="2">
-        <v>50883549</v>
+      <c r="D323" s="1">
+        <v>51338421</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -4837,8 +4840,8 @@
       <c r="C324" t="s">
         <v>6</v>
       </c>
-      <c r="D324" s="2">
-        <v>50015045</v>
+      <c r="D324" s="1">
+        <v>52031564</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -4851,8 +4854,8 @@
       <c r="C325" t="s">
         <v>6</v>
       </c>
-      <c r="D325" s="2">
-        <v>51220488</v>
+      <c r="D325" s="1">
+        <v>51359195</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -4865,8 +4868,8 @@
       <c r="C326" t="s">
         <v>6</v>
       </c>
-      <c r="D326" s="2">
-        <v>50719710</v>
+      <c r="D326" s="1">
+        <v>51334528</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -4879,8 +4882,22 @@
       <c r="C327" t="s">
         <v>6</v>
       </c>
-      <c r="D327" s="2">
-        <v>50687610</v>
+      <c r="D327" s="1">
+        <v>52088217</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" s="1">
+        <v>52162244</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -4891,10 +4908,10 @@
         <v>4</v>
       </c>
       <c r="C329" t="s">
-        <v>7</v>
-      </c>
-      <c r="D329" s="2">
-        <v>49743504</v>
+        <v>6</v>
+      </c>
+      <c r="D329" s="1">
+        <v>52191896</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -4905,10 +4922,10 @@
         <v>4</v>
       </c>
       <c r="C330" t="s">
-        <v>7</v>
-      </c>
-      <c r="D330" s="2">
-        <v>51265367</v>
+        <v>6</v>
+      </c>
+      <c r="D330" s="1">
+        <v>52012994</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -4919,10 +4936,10 @@
         <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>7</v>
-      </c>
-      <c r="D331" s="2">
-        <v>50901549</v>
+        <v>6</v>
+      </c>
+      <c r="D331" s="1">
+        <v>51434166</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -4933,10 +4950,10 @@
         <v>4</v>
       </c>
       <c r="C332" t="s">
-        <v>7</v>
-      </c>
-      <c r="D332" s="2">
-        <v>49743516</v>
+        <v>6</v>
+      </c>
+      <c r="D332" s="1">
+        <v>52597431</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -4947,10 +4964,10 @@
         <v>4</v>
       </c>
       <c r="C333" t="s">
-        <v>7</v>
-      </c>
-      <c r="D333" s="2">
-        <v>50884390</v>
+        <v>6</v>
+      </c>
+      <c r="D333" s="1">
+        <v>52458917</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -4961,10 +4978,10 @@
         <v>4</v>
       </c>
       <c r="C334" t="s">
-        <v>7</v>
-      </c>
-      <c r="D334" s="2">
-        <v>50532969</v>
+        <v>6</v>
+      </c>
+      <c r="D334" s="1">
+        <v>52446577</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -4975,10 +4992,10 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>7</v>
-      </c>
-      <c r="D335" s="2">
-        <v>50687787</v>
+        <v>6</v>
+      </c>
+      <c r="D335" s="1">
+        <v>50491533</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -4989,10 +5006,10 @@
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>7</v>
-      </c>
-      <c r="D336" s="2">
-        <v>50980404</v>
+        <v>6</v>
+      </c>
+      <c r="D336" s="1">
+        <v>52416783</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -5003,24 +5020,10 @@
         <v>4</v>
       </c>
       <c r="C337" t="s">
-        <v>7</v>
-      </c>
-      <c r="D337" s="2">
-        <v>50719367</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>3</v>
-      </c>
-      <c r="B338" t="s">
-        <v>4</v>
-      </c>
-      <c r="C338" t="s">
-        <v>7</v>
-      </c>
-      <c r="D338" s="2">
-        <v>50651104</v>
+        <v>6</v>
+      </c>
+      <c r="D337" s="1">
+        <v>51486396</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -5033,8 +5036,8 @@
       <c r="C339" t="s">
         <v>7</v>
       </c>
-      <c r="D339" s="2">
-        <v>50684008</v>
+      <c r="D339" s="1">
+        <v>51133350</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -5047,8 +5050,8 @@
       <c r="C340" t="s">
         <v>7</v>
       </c>
-      <c r="D340" s="2">
-        <v>50362085</v>
+      <c r="D340" s="1">
+        <v>50485487</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -5061,8 +5064,8 @@
       <c r="C341" t="s">
         <v>7</v>
       </c>
-      <c r="D341" s="2">
-        <v>50503881</v>
+      <c r="D341" s="1">
+        <v>52010663</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -5075,8 +5078,8 @@
       <c r="C342" t="s">
         <v>7</v>
       </c>
-      <c r="D342" s="2">
-        <v>53456921</v>
+      <c r="D342" s="1">
+        <v>51272918</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -5089,8 +5092,8 @@
       <c r="C343" t="s">
         <v>7</v>
       </c>
-      <c r="D343" s="2">
-        <v>49312942</v>
+      <c r="D343" s="1">
+        <v>52449138</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -5103,8 +5106,8 @@
       <c r="C344" t="s">
         <v>7</v>
       </c>
-      <c r="D344" s="2">
-        <v>50672192</v>
+      <c r="D344" s="1">
+        <v>52167382</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -5117,8 +5120,8 @@
       <c r="C345" t="s">
         <v>7</v>
       </c>
-      <c r="D345" s="2">
-        <v>95108005</v>
+      <c r="D345" s="1">
+        <v>52026394</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -5131,8 +5134,8 @@
       <c r="C346" t="s">
         <v>7</v>
       </c>
-      <c r="D346" s="2">
-        <v>51216651</v>
+      <c r="D346" s="1">
+        <v>52090416</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -5145,8 +5148,8 @@
       <c r="C347" t="s">
         <v>7</v>
       </c>
-      <c r="D347" s="2">
-        <v>50983944</v>
+      <c r="D347" s="1">
+        <v>52438756</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -5159,8 +5162,8 @@
       <c r="C348" t="s">
         <v>7</v>
       </c>
-      <c r="D348" s="2">
-        <v>50399000</v>
+      <c r="D348" s="1">
+        <v>52604159</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -5173,8 +5176,8 @@
       <c r="C349" t="s">
         <v>7</v>
       </c>
-      <c r="D349" s="2">
-        <v>51137353</v>
+      <c r="D349" s="1">
+        <v>51257555</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -5187,8 +5190,8 @@
       <c r="C350" t="s">
         <v>7</v>
       </c>
-      <c r="D350" s="2">
-        <v>51147223</v>
+      <c r="D350" s="1">
+        <v>52025293</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -5201,8 +5204,8 @@
       <c r="C351" t="s">
         <v>7</v>
       </c>
-      <c r="D351" s="2">
-        <v>50651103</v>
+      <c r="D351" s="1">
+        <v>51333982</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -5215,8 +5218,22 @@
       <c r="C352" t="s">
         <v>7</v>
       </c>
-      <c r="D352" s="2">
-        <v>49986250</v>
+      <c r="D352" s="1">
+        <v>51565565</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="1">
+        <v>52416705</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -5227,10 +5244,10 @@
         <v>4</v>
       </c>
       <c r="C354" t="s">
-        <v>1</v>
-      </c>
-      <c r="D354" s="2">
-        <v>49001631</v>
+        <v>7</v>
+      </c>
+      <c r="D354" s="1">
+        <v>52033946</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -5241,10 +5258,10 @@
         <v>4</v>
       </c>
       <c r="C355" t="s">
-        <v>1</v>
-      </c>
-      <c r="D355" s="2">
-        <v>49590645</v>
+        <v>7</v>
+      </c>
+      <c r="D355" s="1">
+        <v>52012954</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -5255,10 +5272,10 @@
         <v>4</v>
       </c>
       <c r="C356" t="s">
-        <v>1</v>
-      </c>
-      <c r="D356" s="2">
-        <v>49161664</v>
+        <v>7</v>
+      </c>
+      <c r="D356" s="1">
+        <v>52136654</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -5269,10 +5286,10 @@
         <v>4</v>
       </c>
       <c r="C357" t="s">
-        <v>1</v>
-      </c>
-      <c r="D357" s="2">
-        <v>49590673</v>
+        <v>7</v>
+      </c>
+      <c r="D357" s="1">
+        <v>51443326</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -5283,10 +5300,10 @@
         <v>4</v>
       </c>
       <c r="C358" t="s">
-        <v>1</v>
-      </c>
-      <c r="D358" s="2">
-        <v>49001625</v>
+        <v>7</v>
+      </c>
+      <c r="D358" s="1">
+        <v>51409172</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -5297,10 +5314,10 @@
         <v>4</v>
       </c>
       <c r="C359" t="s">
-        <v>1</v>
-      </c>
-      <c r="D359" s="2">
-        <v>49590644</v>
+        <v>7</v>
+      </c>
+      <c r="D359" s="1">
+        <v>52595906</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -5311,10 +5328,10 @@
         <v>4</v>
       </c>
       <c r="C360" t="s">
-        <v>1</v>
-      </c>
-      <c r="D360" s="2">
-        <v>50094319</v>
+        <v>7</v>
+      </c>
+      <c r="D360" s="1">
+        <v>51438607</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -5325,10 +5342,10 @@
         <v>4</v>
       </c>
       <c r="C361" t="s">
-        <v>1</v>
-      </c>
-      <c r="D361" s="2">
-        <v>1112048121</v>
+        <v>7</v>
+      </c>
+      <c r="D361" s="1">
+        <v>52009071</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,24 +5356,10 @@
         <v>4</v>
       </c>
       <c r="C362" t="s">
-        <v>1</v>
-      </c>
-      <c r="D362" s="2">
-        <v>49808816</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>3</v>
-      </c>
-      <c r="B363" t="s">
-        <v>4</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1</v>
-      </c>
-      <c r="D363" s="2">
-        <v>50048440</v>
+        <v>7</v>
+      </c>
+      <c r="D362" s="1">
+        <v>51564860</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -5369,8 +5372,8 @@
       <c r="C364" t="s">
         <v>1</v>
       </c>
-      <c r="D364" s="2">
-        <v>49887303</v>
+      <c r="D364" s="1">
+        <v>50097446</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -5383,8 +5386,8 @@
       <c r="C365" t="s">
         <v>1</v>
       </c>
-      <c r="D365" s="2">
-        <v>49887304</v>
+      <c r="D365" s="1">
+        <v>50719411</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -5397,8 +5400,8 @@
       <c r="C366" t="s">
         <v>1</v>
       </c>
-      <c r="D366" s="2">
-        <v>49068923</v>
+      <c r="D366" s="1">
+        <v>50501484</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -5411,8 +5414,8 @@
       <c r="C367" t="s">
         <v>1</v>
       </c>
-      <c r="D367" s="2">
-        <v>49188510</v>
+      <c r="D367" s="1">
+        <v>50777935</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -5425,8 +5428,8 @@
       <c r="C368" t="s">
         <v>1</v>
       </c>
-      <c r="D368" s="2">
-        <v>48676496</v>
+      <c r="D368" s="1">
+        <v>50485735</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -5439,8 +5442,8 @@
       <c r="C369" t="s">
         <v>1</v>
       </c>
-      <c r="D369" s="2">
-        <v>50358789</v>
+      <c r="D369" s="1">
+        <v>50658325</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -5453,8 +5456,8 @@
       <c r="C370" t="s">
         <v>1</v>
       </c>
-      <c r="D370" s="2">
-        <v>50139043</v>
+      <c r="D370" s="1">
+        <v>50399467</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -5467,8 +5470,8 @@
       <c r="C371" t="s">
         <v>1</v>
       </c>
-      <c r="D371" s="2">
-        <v>50152309</v>
+      <c r="D371" s="1">
+        <v>50544290</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -5481,8 +5484,8 @@
       <c r="C372" t="s">
         <v>1</v>
       </c>
-      <c r="D372" s="2">
-        <v>50056999</v>
+      <c r="D372" s="1">
+        <v>50532969</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -5495,8 +5498,8 @@
       <c r="C373" t="s">
         <v>1</v>
       </c>
-      <c r="D373" s="2">
-        <v>49068914</v>
+      <c r="D373" s="1">
+        <v>49743556</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -5509,8 +5512,8 @@
       <c r="C374" t="s">
         <v>1</v>
       </c>
-      <c r="D374" s="2">
-        <v>49758287</v>
+      <c r="D374" s="1">
+        <v>50503916</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -5523,8 +5526,8 @@
       <c r="C375" t="s">
         <v>1</v>
       </c>
-      <c r="D375" s="2">
-        <v>94874179</v>
+      <c r="D375" s="1">
+        <v>50900114</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -5537,8 +5540,8 @@
       <c r="C376" t="s">
         <v>1</v>
       </c>
-      <c r="D376" s="2">
-        <v>48932020</v>
+      <c r="D376" s="1">
+        <v>50658284</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -5551,8 +5554,8 @@
       <c r="C377" t="s">
         <v>1</v>
       </c>
-      <c r="D377" s="2">
-        <v>49735781</v>
+      <c r="D377" s="1">
+        <v>51067432</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -5565,8 +5568,8 @@
       <c r="C378" t="s">
         <v>1</v>
       </c>
-      <c r="D378" s="2">
-        <v>50362082</v>
+      <c r="D378" s="1">
+        <v>96245270</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -5579,8 +5582,8 @@
       <c r="C379" t="s">
         <v>1</v>
       </c>
-      <c r="D379" s="2">
-        <v>50151039</v>
+      <c r="D379" s="1">
+        <v>50490105</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -5593,8 +5596,8 @@
       <c r="C380" t="s">
         <v>1</v>
       </c>
-      <c r="D380" s="2">
-        <v>50067551</v>
+      <c r="D380" s="1">
+        <v>50366664</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -5607,8 +5610,8 @@
       <c r="C381" t="s">
         <v>1</v>
       </c>
-      <c r="D381" s="2">
-        <v>50203011</v>
+      <c r="D381" s="1">
+        <v>50366761</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -5621,8 +5624,8 @@
       <c r="C382" t="s">
         <v>1</v>
       </c>
-      <c r="D382" s="2">
-        <v>49547794</v>
+      <c r="D382" s="1">
+        <v>50490175</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -5635,8 +5638,8 @@
       <c r="C383" t="s">
         <v>1</v>
       </c>
-      <c r="D383" s="2">
-        <v>50226784</v>
+      <c r="D383" s="1">
+        <v>50501334</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -5649,8 +5652,8 @@
       <c r="C384" t="s">
         <v>1</v>
       </c>
-      <c r="D384" s="2">
-        <v>50257550</v>
+      <c r="D384" s="1">
+        <v>50501422</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -5663,8 +5666,22 @@
       <c r="C385" t="s">
         <v>1</v>
       </c>
-      <c r="D385" s="2">
-        <v>50358892</v>
+      <c r="D385" s="1">
+        <v>50804126</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>3</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1</v>
+      </c>
+      <c r="D386" s="1">
+        <v>50951638</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -5675,10 +5692,10 @@
         <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>16</v>
-      </c>
-      <c r="D387" s="2">
-        <v>48047506</v>
+        <v>1</v>
+      </c>
+      <c r="D387" s="1">
+        <v>50719710</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -5689,24 +5706,10 @@
         <v>4</v>
       </c>
       <c r="C388" t="s">
-        <v>16</v>
-      </c>
-      <c r="D388" s="2">
-        <v>49371328</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>3</v>
-      </c>
-      <c r="B389" t="s">
-        <v>4</v>
-      </c>
-      <c r="C389" t="s">
-        <v>16</v>
-      </c>
-      <c r="D389" s="2">
-        <v>50303841</v>
+        <v>1</v>
+      </c>
+      <c r="D388" s="1">
+        <v>50489376</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -5719,8 +5722,8 @@
       <c r="C390" t="s">
         <v>16</v>
       </c>
-      <c r="D390" s="2">
-        <v>49732775</v>
+      <c r="D390" s="1">
+        <v>49743504</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -5733,8 +5736,8 @@
       <c r="C391" t="s">
         <v>16</v>
       </c>
-      <c r="D391" s="2">
-        <v>95852732</v>
+      <c r="D391" s="1">
+        <v>51265367</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -5747,8 +5750,8 @@
       <c r="C392" t="s">
         <v>16</v>
       </c>
-      <c r="D392" s="2">
-        <v>50364953</v>
+      <c r="D392" s="1">
+        <v>50865224</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -5761,8 +5764,8 @@
       <c r="C393" t="s">
         <v>16</v>
       </c>
-      <c r="D393" s="2">
-        <v>50154081</v>
+      <c r="D393" s="1">
+        <v>49743516</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -5775,8 +5778,8 @@
       <c r="C394" t="s">
         <v>16</v>
       </c>
-      <c r="D394" s="2">
-        <v>49696607</v>
+      <c r="D394" s="1">
+        <v>57068950</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -5789,8 +5792,8 @@
       <c r="C395" t="s">
         <v>16</v>
       </c>
-      <c r="D395" s="2">
-        <v>50966643</v>
+      <c r="D395" s="1">
+        <v>50884390</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -5803,8 +5806,8 @@
       <c r="C396" t="s">
         <v>16</v>
       </c>
-      <c r="D396" s="2">
-        <v>49421663</v>
+      <c r="D396" s="1">
+        <v>50687787</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -5817,8 +5820,8 @@
       <c r="C397" t="s">
         <v>16</v>
       </c>
-      <c r="D397" s="2">
-        <v>49188669</v>
+      <c r="D397" s="1">
+        <v>50980404</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -5831,8 +5834,8 @@
       <c r="C398" t="s">
         <v>16</v>
       </c>
-      <c r="D398" s="2">
-        <v>50303940</v>
+      <c r="D398" s="1">
+        <v>50778205</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -5845,8 +5848,8 @@
       <c r="C399" t="s">
         <v>16</v>
       </c>
-      <c r="D399" s="2">
-        <v>48706685</v>
+      <c r="D399" s="1">
+        <v>50719367</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -5859,8 +5862,8 @@
       <c r="C400" t="s">
         <v>16</v>
       </c>
-      <c r="D400" s="2">
-        <v>50298742</v>
+      <c r="D400" s="1">
+        <v>50530486</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -5873,8 +5876,8 @@
       <c r="C401" t="s">
         <v>16</v>
       </c>
-      <c r="D401" s="2">
-        <v>50358788</v>
+      <c r="D401" s="1">
+        <v>50651224</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -5887,8 +5890,8 @@
       <c r="C402" t="s">
         <v>16</v>
       </c>
-      <c r="D402" s="2">
-        <v>49552808</v>
+      <c r="D402" s="1">
+        <v>50684008</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -5901,8 +5904,8 @@
       <c r="C403" t="s">
         <v>16</v>
       </c>
-      <c r="D403" s="2">
-        <v>49590521</v>
+      <c r="D403" s="1">
+        <v>50362085</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -5915,8 +5918,8 @@
       <c r="C404" t="s">
         <v>16</v>
       </c>
-      <c r="D404" s="2">
-        <v>49174096</v>
+      <c r="D404" s="1">
+        <v>50147355</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -5929,8 +5932,8 @@
       <c r="C405" t="s">
         <v>16</v>
       </c>
-      <c r="D405" s="2">
-        <v>49001794</v>
+      <c r="D405" s="1">
+        <v>50503881</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -5943,8 +5946,8 @@
       <c r="C406" t="s">
         <v>16</v>
       </c>
-      <c r="D406" s="2">
-        <v>49887247</v>
+      <c r="D406" s="1">
+        <v>49312942</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -5957,8 +5960,8 @@
       <c r="C407" t="s">
         <v>16</v>
       </c>
-      <c r="D407" s="2">
-        <v>49590503</v>
+      <c r="D407" s="1">
+        <v>50672192</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -5971,8 +5974,8 @@
       <c r="C408" t="s">
         <v>16</v>
       </c>
-      <c r="D408" s="2">
-        <v>50364252</v>
+      <c r="D408" s="1">
+        <v>95108005</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -5985,8 +5988,8 @@
       <c r="C409" t="s">
         <v>16</v>
       </c>
-      <c r="D409" s="2">
-        <v>50141361</v>
+      <c r="D409" s="1">
+        <v>51216651</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -5999,8 +6002,8 @@
       <c r="C410" t="s">
         <v>16</v>
       </c>
-      <c r="D410" s="2">
-        <v>48827704</v>
+      <c r="D410" s="1">
+        <v>50983944</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -6013,8 +6016,8 @@
       <c r="C411" t="s">
         <v>16</v>
       </c>
-      <c r="D411" s="2">
-        <v>50104212</v>
+      <c r="D411" s="1">
+        <v>51137353</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -6027,8 +6030,8 @@
       <c r="C412" t="s">
         <v>16</v>
       </c>
-      <c r="D412" s="2">
-        <v>49951063</v>
+      <c r="D412" s="1">
+        <v>51147223</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -6041,8 +6044,8 @@
       <c r="C413" t="s">
         <v>16</v>
       </c>
-      <c r="D413" s="2">
-        <v>49724756</v>
+      <c r="D413" s="1">
+        <v>50651103</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -6055,22 +6058,8 @@
       <c r="C414" t="s">
         <v>16</v>
       </c>
-      <c r="D414" s="2">
-        <v>49358220</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>3</v>
-      </c>
-      <c r="B415" t="s">
-        <v>4</v>
-      </c>
-      <c r="C415" t="s">
-        <v>16</v>
-      </c>
-      <c r="D415" s="2">
-        <v>49066766</v>
+      <c r="D414" s="1">
+        <v>49986250</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -6081,10 +6070,10 @@
         <v>4</v>
       </c>
       <c r="C416" t="s">
-        <v>16</v>
-      </c>
-      <c r="D416" s="2">
-        <v>49436197</v>
+        <v>17</v>
+      </c>
+      <c r="D416" s="1">
+        <v>49590645</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -6095,10 +6084,10 @@
         <v>4</v>
       </c>
       <c r="C417" t="s">
-        <v>16</v>
-      </c>
-      <c r="D417" s="2">
-        <v>49725453</v>
+        <v>17</v>
+      </c>
+      <c r="D417" s="1">
+        <v>49161664</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -6109,10 +6098,10 @@
         <v>4</v>
       </c>
       <c r="C418" t="s">
-        <v>16</v>
-      </c>
-      <c r="D418" s="2">
-        <v>50152292</v>
+        <v>17</v>
+      </c>
+      <c r="D418" s="1">
+        <v>49590673</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -6123,10 +6112,24 @@
         <v>4</v>
       </c>
       <c r="C419" t="s">
-        <v>16</v>
-      </c>
-      <c r="D419" s="2">
-        <v>50274721</v>
+        <v>17</v>
+      </c>
+      <c r="D419" s="1">
+        <v>50094319</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>3</v>
+      </c>
+      <c r="B420" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" t="s">
+        <v>17</v>
+      </c>
+      <c r="D420" s="1">
+        <v>49808816</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -6139,8 +6142,8 @@
       <c r="C421" t="s">
         <v>17</v>
       </c>
-      <c r="D421" s="2">
-        <v>49170552</v>
+      <c r="D421" s="1">
+        <v>50048440</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -6153,8 +6156,8 @@
       <c r="C422" t="s">
         <v>17</v>
       </c>
-      <c r="D422" s="2">
-        <v>49312907</v>
+      <c r="D422" s="1">
+        <v>49887303</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -6167,8 +6170,8 @@
       <c r="C423" t="s">
         <v>17</v>
       </c>
-      <c r="D423" s="2">
-        <v>49681220</v>
+      <c r="D423" s="1">
+        <v>49887304</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -6181,8 +6184,8 @@
       <c r="C424" t="s">
         <v>17</v>
       </c>
-      <c r="D424" s="2">
-        <v>49241602</v>
+      <c r="D424" s="1">
+        <v>49068923</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -6195,8 +6198,8 @@
       <c r="C425" t="s">
         <v>17</v>
       </c>
-      <c r="D425" s="2">
-        <v>49421611</v>
+      <c r="D425" s="1">
+        <v>49188510</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -6209,8 +6212,8 @@
       <c r="C426" t="s">
         <v>17</v>
       </c>
-      <c r="D426" s="2">
-        <v>49069428</v>
+      <c r="D426" s="1">
+        <v>50325389</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -6223,8 +6226,8 @@
       <c r="C427" t="s">
         <v>17</v>
       </c>
-      <c r="D427" s="2">
-        <v>49415990</v>
+      <c r="D427" s="1">
+        <v>48676496</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -6237,8 +6240,8 @@
       <c r="C428" t="s">
         <v>17</v>
       </c>
-      <c r="D428" s="2">
-        <v>48995635</v>
+      <c r="D428" s="1">
+        <v>50358789</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -6251,8 +6254,8 @@
       <c r="C429" t="s">
         <v>17</v>
       </c>
-      <c r="D429" s="2">
-        <v>49244800</v>
+      <c r="D429" s="1">
+        <v>50139043</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -6265,8 +6268,8 @@
       <c r="C430" t="s">
         <v>17</v>
       </c>
-      <c r="D430" s="2">
-        <v>48226729</v>
+      <c r="D430" s="1">
+        <v>50152309</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -6279,8 +6282,8 @@
       <c r="C431" t="s">
         <v>17</v>
       </c>
-      <c r="D431" s="2">
-        <v>49377364</v>
+      <c r="D431" s="1">
+        <v>49068914</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -6293,8 +6296,8 @@
       <c r="C432" t="s">
         <v>17</v>
       </c>
-      <c r="D432" s="2">
-        <v>48982961</v>
+      <c r="D432" s="1">
+        <v>49758287</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -6307,8 +6310,8 @@
       <c r="C433" t="s">
         <v>17</v>
       </c>
-      <c r="D433" s="2">
-        <v>49244779</v>
+      <c r="D433" s="1">
+        <v>94874179</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -6321,8 +6324,8 @@
       <c r="C434" t="s">
         <v>17</v>
       </c>
-      <c r="D434" s="2">
-        <v>48438606</v>
+      <c r="D434" s="1">
+        <v>48932020</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -6335,8 +6338,8 @@
       <c r="C435" t="s">
         <v>17</v>
       </c>
-      <c r="D435" s="2">
-        <v>48840492</v>
+      <c r="D435" s="1">
+        <v>48840802</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -6349,8 +6352,8 @@
       <c r="C436" t="s">
         <v>17</v>
       </c>
-      <c r="D436" s="2">
-        <v>48847668</v>
+      <c r="D436" s="1">
+        <v>49735781</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -6363,8 +6366,8 @@
       <c r="C437" t="s">
         <v>17</v>
       </c>
-      <c r="D437" s="2">
-        <v>49525760</v>
+      <c r="D437" s="1">
+        <v>50362082</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -6377,8 +6380,8 @@
       <c r="C438" t="s">
         <v>17</v>
       </c>
-      <c r="D438" s="2">
-        <v>48438524</v>
+      <c r="D438" s="1">
+        <v>50151039</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -6391,8 +6394,8 @@
       <c r="C439" t="s">
         <v>17</v>
       </c>
-      <c r="D439" s="2">
-        <v>48840802</v>
+      <c r="D439" s="1">
+        <v>50067551</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -6405,8 +6408,8 @@
       <c r="C440" t="s">
         <v>17</v>
       </c>
-      <c r="D440" s="2">
-        <v>48931833</v>
+      <c r="D440" s="1">
+        <v>50203011</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -6419,8 +6422,8 @@
       <c r="C441" t="s">
         <v>17</v>
       </c>
-      <c r="D441" s="2">
-        <v>53456920</v>
+      <c r="D441" s="1">
+        <v>49547794</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -6433,8 +6436,8 @@
       <c r="C442" t="s">
         <v>17</v>
       </c>
-      <c r="D442" s="2">
-        <v>48991760</v>
+      <c r="D442" s="1">
+        <v>50226784</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -6447,22 +6450,8 @@
       <c r="C443" t="s">
         <v>17</v>
       </c>
-      <c r="D443" s="2">
-        <v>49258233</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
-        <v>3</v>
-      </c>
-      <c r="B444" t="s">
-        <v>4</v>
-      </c>
-      <c r="C444" t="s">
-        <v>17</v>
-      </c>
-      <c r="D444" s="2">
-        <v>48880159</v>
+      <c r="D443" s="1">
+        <v>50358892</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -6473,10 +6462,10 @@
         <v>4</v>
       </c>
       <c r="C445" t="s">
-        <v>17</v>
-      </c>
-      <c r="D445" s="2">
-        <v>48840913</v>
+        <v>2</v>
+      </c>
+      <c r="D445" s="1">
+        <v>48047506</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -6487,10 +6476,24 @@
         <v>4</v>
       </c>
       <c r="C446" t="s">
-        <v>17</v>
-      </c>
-      <c r="D446" s="2">
-        <v>49373538</v>
+        <v>2</v>
+      </c>
+      <c r="D446" s="1">
+        <v>50102259</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447" t="s">
+        <v>4</v>
+      </c>
+      <c r="C447" t="s">
+        <v>2</v>
+      </c>
+      <c r="D447" s="1">
+        <v>49371328</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -6503,8 +6506,8 @@
       <c r="C448" t="s">
         <v>2</v>
       </c>
-      <c r="D448" s="2">
-        <v>48226735</v>
+      <c r="D448" s="1">
+        <v>50303841</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -6517,8 +6520,8 @@
       <c r="C449" t="s">
         <v>2</v>
       </c>
-      <c r="D449" s="2">
-        <v>49066789</v>
+      <c r="D449" s="1">
+        <v>49241628</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -6531,8 +6534,8 @@
       <c r="C450" t="s">
         <v>2</v>
       </c>
-      <c r="D450" s="2">
-        <v>49436030</v>
+      <c r="D450" s="1">
+        <v>95852732</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -6545,8 +6548,8 @@
       <c r="C451" t="s">
         <v>2</v>
       </c>
-      <c r="D451" s="2">
-        <v>48879585</v>
+      <c r="D451" s="1">
+        <v>50154081</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -6559,8 +6562,8 @@
       <c r="C452" t="s">
         <v>2</v>
       </c>
-      <c r="D452" s="2">
-        <v>49244220</v>
+      <c r="D452" s="1">
+        <v>49696607</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -6573,8 +6576,8 @@
       <c r="C453" t="s">
         <v>2</v>
       </c>
-      <c r="D453" s="2">
-        <v>49624169</v>
+      <c r="D453" s="1">
+        <v>50966643</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -6587,8 +6590,8 @@
       <c r="C454" t="s">
         <v>2</v>
       </c>
-      <c r="D454" s="2">
-        <v>48593263</v>
+      <c r="D454" s="1">
+        <v>49421663</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -6601,8 +6604,8 @@
       <c r="C455" t="s">
         <v>2</v>
       </c>
-      <c r="D455" s="2">
-        <v>49129354</v>
+      <c r="D455" s="1">
+        <v>50298742</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -6615,8 +6618,8 @@
       <c r="C456" t="s">
         <v>2</v>
       </c>
-      <c r="D456" s="2">
-        <v>49743545</v>
+      <c r="D456" s="1">
+        <v>50358788</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -6629,8 +6632,8 @@
       <c r="C457" t="s">
         <v>2</v>
       </c>
-      <c r="D457" s="2">
-        <v>49068940</v>
+      <c r="D457" s="1">
+        <v>49552808</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -6643,8 +6646,8 @@
       <c r="C458" t="s">
         <v>2</v>
       </c>
-      <c r="D458" s="2">
-        <v>49192289</v>
+      <c r="D458" s="1">
+        <v>49590521</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -6657,8 +6660,8 @@
       <c r="C459" t="s">
         <v>2</v>
       </c>
-      <c r="D459" s="2">
-        <v>48299107</v>
+      <c r="D459" s="1">
+        <v>49174096</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -6671,8 +6674,8 @@
       <c r="C460" t="s">
         <v>2</v>
       </c>
-      <c r="D460" s="2">
-        <v>49419803</v>
+      <c r="D460" s="1">
+        <v>49001794</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -6685,8 +6688,8 @@
       <c r="C461" t="s">
         <v>2</v>
       </c>
-      <c r="D461" s="2">
-        <v>48441820</v>
+      <c r="D461" s="1">
+        <v>49887247</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -6699,8 +6702,8 @@
       <c r="C462" t="s">
         <v>2</v>
       </c>
-      <c r="D462" s="2">
-        <v>49174046</v>
+      <c r="D462" s="1">
+        <v>50364252</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -6713,8 +6716,8 @@
       <c r="C463" t="s">
         <v>2</v>
       </c>
-      <c r="D463" s="2">
-        <v>48880191</v>
+      <c r="D463" s="1">
+        <v>50141361</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -6727,8 +6730,8 @@
       <c r="C464" t="s">
         <v>2</v>
       </c>
-      <c r="D464" s="2">
-        <v>49419971</v>
+      <c r="D464" s="1">
+        <v>48827704</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -6741,8 +6744,8 @@
       <c r="C465" t="s">
         <v>2</v>
       </c>
-      <c r="D465" s="2">
-        <v>48911769</v>
+      <c r="D465" s="1">
+        <v>50104212</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -6755,8 +6758,8 @@
       <c r="C466" t="s">
         <v>2</v>
       </c>
-      <c r="D466" s="2">
-        <v>49537844</v>
+      <c r="D466" s="1">
+        <v>49951063</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -6769,8 +6772,8 @@
       <c r="C467" t="s">
         <v>2</v>
       </c>
-      <c r="D467" s="2">
-        <v>48840851</v>
+      <c r="D467" s="1">
+        <v>49724756</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -6783,8 +6786,8 @@
       <c r="C468" t="s">
         <v>2</v>
       </c>
-      <c r="D468" s="2">
-        <v>49240814</v>
+      <c r="D468" s="1">
+        <v>49358220</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -6797,8 +6800,8 @@
       <c r="C469" t="s">
         <v>2</v>
       </c>
-      <c r="D469" s="2">
-        <v>48628987</v>
+      <c r="D469" s="1">
+        <v>49066766</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -6811,8 +6814,8 @@
       <c r="C470" t="s">
         <v>2</v>
       </c>
-      <c r="D470" s="2">
-        <v>49354241</v>
+      <c r="D470" s="1">
+        <v>49436197</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -6825,8 +6828,8 @@
       <c r="C471" t="s">
         <v>2</v>
       </c>
-      <c r="D471" s="2" t="s">
-        <v>18</v>
+      <c r="D471" s="1">
+        <v>49725453</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -6839,8 +6842,8 @@
       <c r="C472" t="s">
         <v>2</v>
       </c>
-      <c r="D472" s="2">
-        <v>49161575</v>
+      <c r="D472" s="1">
+        <v>50152292</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -6853,36 +6856,8 @@
       <c r="C473" t="s">
         <v>2</v>
       </c>
-      <c r="D473" s="2">
-        <v>49543549</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
-        <v>3</v>
-      </c>
-      <c r="B474" t="s">
-        <v>4</v>
-      </c>
-      <c r="C474" t="s">
-        <v>2</v>
-      </c>
-      <c r="D474" s="2">
-        <v>44258705</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
-        <v>3</v>
-      </c>
-      <c r="B476" t="s">
-        <v>4</v>
-      </c>
-      <c r="C476" t="s">
-        <v>2</v>
-      </c>
-      <c r="D476" s="2">
-        <v>41550112</v>
+      <c r="D473" s="1">
+        <v>50274721</v>
       </c>
     </row>
   </sheetData>
